--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3956.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3956.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.245015868211504</v>
+        <v>0.6053187251091003</v>
       </c>
       <c r="B1">
-        <v>2.359010795532124</v>
+        <v>1.669934034347534</v>
       </c>
       <c r="C1">
-        <v>6.568557976496499</v>
+        <v>3.741125106811523</v>
       </c>
       <c r="D1">
-        <v>3.151505926725257</v>
+        <v>1.400201439857483</v>
       </c>
       <c r="E1">
-        <v>1.366619172545553</v>
+        <v>0.7307687997817993</v>
       </c>
     </row>
   </sheetData>
